--- a/outputs-HGR-r202/g__Propionibacterium.xlsx
+++ b/outputs-HGR-r202/g__Propionibacterium.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -473,6 +478,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -491,6 +501,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -509,6 +524,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -527,6 +547,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -545,6 +570,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -563,6 +593,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -581,6 +616,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -599,6 +639,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -617,6 +662,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -635,6 +685,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -653,6 +708,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -671,6 +731,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -689,6 +754,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -707,6 +777,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -725,6 +800,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -743,6 +823,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -761,6 +846,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -779,6 +869,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -797,6 +892,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -815,6 +915,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -833,6 +938,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -851,6 +961,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -869,6 +984,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -887,6 +1007,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -905,6 +1030,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -923,6 +1053,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -941,6 +1076,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -959,6 +1099,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -977,6 +1122,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -995,6 +1145,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1013,6 +1168,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1031,6 +1191,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1049,6 +1214,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1067,6 +1237,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1085,6 +1260,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1103,6 +1283,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1121,6 +1306,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1139,6 +1329,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1157,6 +1352,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1175,6 +1375,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -1193,6 +1398,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1211,6 +1421,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
@@ -1229,6 +1444,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1247,6 +1467,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1265,6 +1490,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1283,6 +1513,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
@@ -1301,6 +1536,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1319,6 +1559,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
@@ -1337,6 +1582,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
@@ -1355,6 +1605,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
@@ -1373,6 +1628,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
@@ -1391,6 +1651,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
@@ -1409,6 +1674,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
@@ -1427,6 +1697,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -1445,6 +1720,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
@@ -1463,6 +1743,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
@@ -1481,6 +1766,11 @@
           <t>s__Propionibacterium freudenreichii</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
@@ -1495,6 +1785,11 @@
         <v>1</v>
       </c>
       <c r="D59" t="inlineStr">
+        <is>
+          <t>s__Propionibacterium freudenreichii</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
         <is>
           <t>s__Propionibacterium freudenreichii</t>
         </is>
